--- a/DESP/uploads/indicator/TableIndicator_Import.xlsx
+++ b/DESP/uploads/indicator/TableIndicator_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DESP-0708\DESP\uploads\indicator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DESP\DESP\uploads\indicator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2693A290-650C-465E-B6C5-2D501C9DF6A2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D19EF61E-7D49-4507-A7AE-09C452C7F640}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2496" yWindow="48" windowWidth="19992" windowHeight="12312" xr2:uid="{FBDD5B82-8127-461C-AB24-C9DADB82461B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBDD5B82-8127-461C-AB24-C9DADB82461B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,29 +31,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>Indicator_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Indicator_Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Indicator_Weight</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indicator_Eval_Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indicator_AdminID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Indicator_AdminName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -422,18 +406,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90A34008-BE25-42C4-948D-DA85018979FF}">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +424,6 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
